--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/DeltekMapScirpts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_445D90280F9FB716AB20EE0D8A73E6C2A4598460" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30733B46-7B14-469A-85EB-8D8C1BBFFE38}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>Hungry Dogs</t>
   </si>
@@ -49,65 +45,155 @@
     <t>Sorry 🤷🏽‍♂️</t>
   </si>
   <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>5-8-1</t>
+  </si>
+  <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>12 - 2 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 1</t>
-  </si>
-  <si>
-    <t>9 - 4 - 1</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +256,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,27 +334,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,24 +368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,27 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,236 +576,236 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -785,21 +814,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -808,9 +832,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -819,12 +843,12 @@
         <v>5.875</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -833,12 +857,12 @@
         <v>6.5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -847,12 +871,12 @@
         <v>6.5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -861,12 +885,12 @@
         <v>6.625</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -875,12 +899,12 @@
         <v>6.875</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -889,12 +913,12 @@
         <v>6.875</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -903,12 +927,12 @@
         <v>7.875</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -917,7 +941,7 @@
         <v>8.75</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -926,37 +950,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -968,12 +985,12 @@
         <v>-2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -985,12 +1002,12 @@
         <v>0.625</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1002,12 +1019,12 @@
         <v>-0.125</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1019,12 +1036,12 @@
         <v>0.125</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1036,12 +1053,12 @@
         <v>0.625</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1053,12 +1070,12 @@
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1070,12 +1087,12 @@
         <v>-0.375</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1087,7 +1104,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1096,89 +1113,399 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>30.78</v>
+      </c>
+      <c r="C2">
+        <v>23.57</v>
+      </c>
+      <c r="D2">
+        <v>18.85</v>
+      </c>
+      <c r="E2">
+        <v>14.18</v>
+      </c>
+      <c r="F2">
+        <v>7.95</v>
+      </c>
+      <c r="G2">
+        <v>3.8</v>
+      </c>
+      <c r="H2">
+        <v>0.79</v>
+      </c>
+      <c r="I2">
+        <v>0.08</v>
+      </c>
+      <c r="J2">
+        <v>99.13000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>29.23</v>
+      </c>
+      <c r="C3">
+        <v>26.44</v>
+      </c>
+      <c r="D3">
+        <v>20.39</v>
+      </c>
+      <c r="E3">
+        <v>12.62</v>
+      </c>
+      <c r="F3">
+        <v>7.290000000000001</v>
+      </c>
+      <c r="G3">
+        <v>3.16</v>
+      </c>
+      <c r="H3">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.02</v>
+      </c>
+      <c r="J3">
+        <v>99.13000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>22.82</v>
+      </c>
+      <c r="C4">
+        <v>22.03</v>
+      </c>
+      <c r="D4">
+        <v>19.92</v>
+      </c>
+      <c r="E4">
+        <v>16.02</v>
+      </c>
+      <c r="F4">
+        <v>10.79</v>
+      </c>
+      <c r="G4">
+        <v>6.45</v>
+      </c>
+      <c r="H4">
+        <v>1.86</v>
+      </c>
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+      <c r="J4">
+        <v>98.02999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10.66</v>
+      </c>
+      <c r="C5">
+        <v>14.58</v>
+      </c>
+      <c r="D5">
+        <v>17.87</v>
+      </c>
+      <c r="E5">
+        <v>19.45</v>
+      </c>
+      <c r="F5">
+        <v>17.96</v>
+      </c>
+      <c r="G5">
+        <v>13.28</v>
+      </c>
+      <c r="H5">
+        <v>5.72</v>
+      </c>
+      <c r="I5">
+        <v>0.48</v>
+      </c>
+      <c r="J5">
+        <v>93.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3.39</v>
+      </c>
+      <c r="C6">
+        <v>6.22</v>
+      </c>
+      <c r="D6">
+        <v>10.46</v>
+      </c>
+      <c r="E6">
+        <v>16.09</v>
+      </c>
+      <c r="F6">
+        <v>20.9</v>
+      </c>
+      <c r="G6">
+        <v>24.51</v>
+      </c>
+      <c r="H6">
+        <v>16.3</v>
+      </c>
+      <c r="I6">
+        <v>2.13</v>
+      </c>
+      <c r="J6">
+        <v>81.56999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3.03</v>
+      </c>
+      <c r="C7">
+        <v>6.47</v>
+      </c>
+      <c r="D7">
+        <v>10.4</v>
+      </c>
+      <c r="E7">
+        <v>16.69</v>
+      </c>
+      <c r="F7">
+        <v>23.16</v>
+      </c>
+      <c r="G7">
+        <v>23.17</v>
+      </c>
+      <c r="H7">
+        <v>14.66</v>
+      </c>
+      <c r="I7">
+        <v>2.42</v>
+      </c>
+      <c r="J7">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.09</v>
+      </c>
+      <c r="C8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.1</v>
+      </c>
+      <c r="E8">
+        <v>4.87</v>
+      </c>
+      <c r="F8">
+        <v>11.39</v>
+      </c>
+      <c r="G8">
+        <v>22.25</v>
+      </c>
+      <c r="H8">
+        <v>42.3</v>
+      </c>
+      <c r="I8">
+        <v>16.31</v>
+      </c>
+      <c r="J8">
+        <v>41.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="G9">
+        <v>3.38</v>
+      </c>
+      <c r="H9">
+        <v>17.52</v>
+      </c>
+      <c r="I9">
+        <v>78.45</v>
+      </c>
+      <c r="J9">
+        <v>4.029999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1187,12 +1514,15 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1201,35 +1531,504 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
+        <v>-24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>-3</v>
+      </c>
+      <c r="G2">
+        <v>-3</v>
+      </c>
+      <c r="H2">
+        <v>-3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>-9</v>
+      </c>
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-10</v>
+      </c>
+      <c r="I5">
+        <v>-9</v>
+      </c>
+      <c r="J5">
+        <v>-10</v>
+      </c>
+      <c r="K5">
+        <v>-6</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>-3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-3</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>-10</v>
+      </c>
+      <c r="D7">
+        <v>-8</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>-3</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>-3</v>
+      </c>
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-10</v>
+      </c>
+      <c r="G8">
+        <v>-18</v>
+      </c>
+      <c r="H8">
         <v>-16</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-12</v>
+      </c>
+      <c r="N8">
+        <v>-10</v>
+      </c>
+      <c r="O8">
+        <v>-15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-10</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9">
+        <v>-15</v>
+      </c>
+      <c r="L9">
+        <v>-22</v>
+      </c>
+      <c r="M9">
+        <v>-24</v>
+      </c>
+      <c r="N9">
+        <v>-20</v>
+      </c>
+      <c r="O9">
+        <v>-24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>Hungry Dogs</t>
   </si>
@@ -126,12 +127,39 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Ethyn Periman</t>
+  </si>
+  <si>
     <t>↑8</t>
   </si>
   <si>
@@ -187,6 +215,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>HomeTeam</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
+  </si>
+  <si>
+    <t>HomeLPI</t>
+  </si>
+  <si>
+    <t>AwayLPI</t>
+  </si>
+  <si>
+    <t>LPI_Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1157,31 +1206,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30.78</v>
+        <v>30.45</v>
       </c>
       <c r="C2">
-        <v>23.57</v>
+        <v>25.21</v>
       </c>
       <c r="D2">
-        <v>18.85</v>
+        <v>18.35</v>
       </c>
       <c r="E2">
-        <v>14.18</v>
+        <v>12.9</v>
       </c>
       <c r="F2">
-        <v>7.95</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="G2">
-        <v>3.8</v>
+        <v>4.04</v>
       </c>
       <c r="H2">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="I2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>99.13000000000001</v>
+        <v>99.15000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1189,31 +1238,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>29.23</v>
+        <v>29.28</v>
       </c>
       <c r="C3">
-        <v>26.44</v>
+        <v>25.58</v>
       </c>
       <c r="D3">
-        <v>20.39</v>
+        <v>20.41</v>
       </c>
       <c r="E3">
-        <v>12.62</v>
+        <v>13.22</v>
       </c>
       <c r="F3">
-        <v>7.290000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="G3">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="H3">
-        <v>0.8500000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="I3">
         <v>0.02</v>
       </c>
       <c r="J3">
-        <v>99.13000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1221,31 +1270,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>22.82</v>
+        <v>23.4</v>
       </c>
       <c r="C4">
-        <v>22.03</v>
+        <v>21.21</v>
       </c>
       <c r="D4">
-        <v>19.92</v>
+        <v>19.76</v>
       </c>
       <c r="E4">
-        <v>16.02</v>
+        <v>16.27</v>
       </c>
       <c r="F4">
-        <v>10.79</v>
+        <v>11.06</v>
       </c>
       <c r="G4">
-        <v>6.45</v>
+        <v>6.34</v>
       </c>
       <c r="H4">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="I4">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J4">
-        <v>98.02999999999999</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1253,31 +1302,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.66</v>
+        <v>10.38</v>
       </c>
       <c r="C5">
-        <v>14.58</v>
+        <v>14.14</v>
       </c>
       <c r="D5">
-        <v>17.87</v>
+        <v>17.96</v>
       </c>
       <c r="E5">
-        <v>19.45</v>
+        <v>19.48</v>
       </c>
       <c r="F5">
-        <v>17.96</v>
+        <v>18.76</v>
       </c>
       <c r="G5">
-        <v>13.28</v>
+        <v>13.33</v>
       </c>
       <c r="H5">
-        <v>5.72</v>
+        <v>5.48</v>
       </c>
       <c r="I5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="J5">
-        <v>93.80000000000001</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1285,31 +1334,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="C6">
-        <v>6.22</v>
+        <v>6.34</v>
       </c>
       <c r="D6">
-        <v>10.46</v>
+        <v>10.48</v>
       </c>
       <c r="E6">
-        <v>16.09</v>
+        <v>16.05</v>
       </c>
       <c r="F6">
-        <v>20.9</v>
+        <v>20.73</v>
       </c>
       <c r="G6">
-        <v>24.51</v>
+        <v>25.1</v>
       </c>
       <c r="H6">
-        <v>16.3</v>
+        <v>15.59</v>
       </c>
       <c r="I6">
-        <v>2.13</v>
+        <v>2.45</v>
       </c>
       <c r="J6">
-        <v>81.56999999999999</v>
+        <v>81.96000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1320,28 +1369,28 @@
         <v>3.03</v>
       </c>
       <c r="C7">
-        <v>6.47</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="D7">
-        <v>10.4</v>
+        <v>10.98</v>
       </c>
       <c r="E7">
-        <v>16.69</v>
+        <v>17.35</v>
       </c>
       <c r="F7">
-        <v>23.16</v>
+        <v>22.26</v>
       </c>
       <c r="G7">
-        <v>23.17</v>
+        <v>22.47</v>
       </c>
       <c r="H7">
-        <v>14.66</v>
+        <v>14.5</v>
       </c>
       <c r="I7">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J7">
-        <v>82.92</v>
+        <v>83.04000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1349,31 +1398,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0.6899999999999999</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D8">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="E8">
-        <v>4.87</v>
+        <v>4.64</v>
       </c>
       <c r="F8">
-        <v>11.39</v>
+        <v>10.77</v>
       </c>
       <c r="G8">
-        <v>22.25</v>
+        <v>21.94</v>
       </c>
       <c r="H8">
-        <v>42.3</v>
+        <v>43.41999999999999</v>
       </c>
       <c r="I8">
-        <v>16.31</v>
+        <v>16.42</v>
       </c>
       <c r="J8">
-        <v>41.39</v>
+        <v>40.16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1387,25 +1436,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F9">
-        <v>0.5599999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="G9">
-        <v>3.38</v>
+        <v>3.54</v>
       </c>
       <c r="H9">
-        <v>17.52</v>
+        <v>17.69</v>
       </c>
       <c r="I9">
-        <v>78.45</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="J9">
-        <v>4.029999999999999</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -1415,13 +1464,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1429,146 +1478,173 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
         <v>-15</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>-24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
+      <c r="F9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1586,49 +1662,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1678,7 +1754,7 @@
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1728,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1778,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1828,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1878,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1928,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1978,7 +2054,7 @@
         <v>-15</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2028,7 +2104,329 @@
         <v>-24</v>
       </c>
       <c r="P9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>-16</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>-10</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>39</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>-12</v>
+      </c>
+      <c r="F12">
+        <v>-24</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -220,19 +220,19 @@
     <t>Week</t>
   </si>
   <si>
-    <t>HomeTeam</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
-  </si>
-  <si>
-    <t>HomeLPI</t>
-  </si>
-  <si>
-    <t>AwayLPI</t>
-  </si>
-  <si>
-    <t>LPI_Difference</t>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
   </si>
   <si>
     <t>Winner</t>
@@ -1206,22 +1206,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30.45</v>
+        <v>31.01</v>
       </c>
       <c r="C2">
-        <v>25.21</v>
+        <v>23.84</v>
       </c>
       <c r="D2">
-        <v>18.35</v>
+        <v>19.5</v>
       </c>
       <c r="E2">
-        <v>12.9</v>
+        <v>12.99</v>
       </c>
       <c r="F2">
-        <v>8.200000000000001</v>
+        <v>7.76</v>
       </c>
       <c r="G2">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="H2">
         <v>0.83</v>
@@ -1230,7 +1230,7 @@
         <v>0.02</v>
       </c>
       <c r="J2">
-        <v>99.15000000000001</v>
+        <v>99.14999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>29.28</v>
+        <v>28.59</v>
       </c>
       <c r="C3">
-        <v>25.58</v>
+        <v>26.17</v>
       </c>
       <c r="D3">
-        <v>20.41</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
-        <v>13.22</v>
+        <v>13.77</v>
       </c>
       <c r="F3">
-        <v>7.57</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="G3">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="H3">
-        <v>0.6799999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I3">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J3">
-        <v>99.3</v>
+        <v>99.34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>23.4</v>
+        <v>23.01</v>
       </c>
       <c r="C4">
-        <v>21.21</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>19.76</v>
+        <v>20.09</v>
       </c>
       <c r="E4">
-        <v>16.27</v>
+        <v>16.43</v>
       </c>
       <c r="F4">
-        <v>11.06</v>
+        <v>10.41</v>
       </c>
       <c r="G4">
-        <v>6.34</v>
+        <v>5.87</v>
       </c>
       <c r="H4">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J4">
-        <v>98.04000000000001</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.38</v>
+        <v>10.8</v>
       </c>
       <c r="C5">
-        <v>14.14</v>
+        <v>14.67</v>
       </c>
       <c r="D5">
-        <v>17.96</v>
+        <v>17.57</v>
       </c>
       <c r="E5">
-        <v>19.48</v>
+        <v>19.17</v>
       </c>
       <c r="F5">
-        <v>18.76</v>
+        <v>18.05</v>
       </c>
       <c r="G5">
-        <v>13.33</v>
+        <v>13.68</v>
       </c>
       <c r="H5">
-        <v>5.48</v>
+        <v>5.54</v>
       </c>
       <c r="I5">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="J5">
-        <v>94.05</v>
+        <v>93.94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="C6">
-        <v>6.34</v>
+        <v>6.13</v>
       </c>
       <c r="D6">
-        <v>10.48</v>
+        <v>10.08</v>
       </c>
       <c r="E6">
+        <v>15.47</v>
+      </c>
+      <c r="F6">
+        <v>21.41</v>
+      </c>
+      <c r="G6">
+        <v>25.28</v>
+      </c>
+      <c r="H6">
         <v>16.05</v>
       </c>
-      <c r="F6">
-        <v>20.73</v>
-      </c>
-      <c r="G6">
-        <v>25.1</v>
-      </c>
-      <c r="H6">
-        <v>15.59</v>
-      </c>
       <c r="I6">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="J6">
-        <v>81.96000000000001</v>
+        <v>81.66</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="C7">
-        <v>6.950000000000001</v>
+        <v>6.43</v>
       </c>
       <c r="D7">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="E7">
-        <v>17.35</v>
+        <v>17.2</v>
       </c>
       <c r="F7">
-        <v>22.26</v>
+        <v>23.24</v>
       </c>
       <c r="G7">
-        <v>22.47</v>
+        <v>22.42</v>
       </c>
       <c r="H7">
-        <v>14.5</v>
+        <v>14.24</v>
       </c>
       <c r="I7">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="J7">
-        <v>83.04000000000001</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C8">
-        <v>0.5700000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D8">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="E8">
-        <v>4.64</v>
+        <v>4.82</v>
       </c>
       <c r="F8">
-        <v>10.77</v>
+        <v>11.15</v>
       </c>
       <c r="G8">
-        <v>21.94</v>
+        <v>21.93</v>
       </c>
       <c r="H8">
-        <v>43.41999999999999</v>
+        <v>43.23</v>
       </c>
       <c r="I8">
-        <v>16.42</v>
+        <v>16.31</v>
       </c>
       <c r="J8">
-        <v>40.16</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1436,25 +1436,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G9">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="H9">
-        <v>17.69</v>
+        <v>17.39</v>
       </c>
       <c r="I9">
-        <v>78.01000000000001</v>
+        <v>78.39</v>
       </c>
       <c r="J9">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -1206,31 +1206,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31.01</v>
+        <v>30.2</v>
       </c>
       <c r="C2">
-        <v>23.84</v>
+        <v>24.21</v>
       </c>
       <c r="D2">
-        <v>19.5</v>
+        <v>19.54</v>
       </c>
       <c r="E2">
-        <v>12.99</v>
+        <v>13.65</v>
       </c>
       <c r="F2">
-        <v>7.76</v>
+        <v>7.82</v>
       </c>
       <c r="G2">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>0.83</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>99.14999999999999</v>
+        <v>99.01999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1238,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>28.59</v>
+        <v>29.38</v>
       </c>
       <c r="C3">
-        <v>26.17</v>
+        <v>25.04</v>
       </c>
       <c r="D3">
-        <v>20.1</v>
+        <v>20.51</v>
       </c>
       <c r="E3">
-        <v>13.77</v>
+        <v>13.83</v>
       </c>
       <c r="F3">
-        <v>7.290000000000001</v>
+        <v>7.51</v>
       </c>
       <c r="G3">
-        <v>3.42</v>
+        <v>3.07</v>
       </c>
       <c r="H3">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J3">
         <v>99.34</v>
@@ -1270,31 +1270,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>23.01</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>22.69</v>
       </c>
       <c r="D4">
-        <v>20.09</v>
+        <v>19.91</v>
       </c>
       <c r="E4">
-        <v>16.43</v>
+        <v>15.32</v>
       </c>
       <c r="F4">
-        <v>10.41</v>
+        <v>10.99</v>
       </c>
       <c r="G4">
-        <v>5.87</v>
+        <v>6.25</v>
       </c>
       <c r="H4">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="I4">
         <v>0.09</v>
       </c>
       <c r="J4">
-        <v>97.81</v>
+        <v>98.15999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1302,95 +1302,95 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.8</v>
+        <v>11.01</v>
       </c>
       <c r="C5">
-        <v>14.67</v>
+        <v>14.51</v>
       </c>
       <c r="D5">
-        <v>17.57</v>
+        <v>17.26</v>
       </c>
       <c r="E5">
-        <v>19.17</v>
+        <v>19.15</v>
       </c>
       <c r="F5">
-        <v>18.05</v>
+        <v>18.2</v>
       </c>
       <c r="G5">
         <v>13.68</v>
       </c>
       <c r="H5">
-        <v>5.54</v>
+        <v>5.76</v>
       </c>
       <c r="I5">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="J5">
-        <v>93.94</v>
+        <v>93.81</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="C6">
-        <v>6.13</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="D6">
-        <v>10.08</v>
+        <v>10.84</v>
       </c>
       <c r="E6">
-        <v>15.47</v>
+        <v>17.17</v>
       </c>
       <c r="F6">
-        <v>21.41</v>
+        <v>22.86</v>
       </c>
       <c r="G6">
-        <v>25.28</v>
+        <v>22.3</v>
       </c>
       <c r="H6">
-        <v>16.05</v>
+        <v>14.52</v>
       </c>
       <c r="I6">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="J6">
-        <v>81.66</v>
+        <v>83.03999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="C7">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="D7">
-        <v>10.96</v>
+        <v>10.08</v>
       </c>
       <c r="E7">
-        <v>17.2</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>23.24</v>
+        <v>20.88</v>
       </c>
       <c r="G7">
-        <v>22.42</v>
+        <v>25.9</v>
       </c>
       <c r="H7">
-        <v>14.24</v>
+        <v>15.43</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
       <c r="J7">
-        <v>83.42</v>
+        <v>82.16000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C8">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="D8">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="E8">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="F8">
-        <v>11.15</v>
+        <v>10.96</v>
       </c>
       <c r="G8">
-        <v>21.93</v>
+        <v>22.04</v>
       </c>
       <c r="H8">
-        <v>43.23</v>
+        <v>43.27</v>
       </c>
       <c r="I8">
-        <v>16.31</v>
+        <v>16.29</v>
       </c>
       <c r="J8">
-        <v>40.46</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1436,25 +1436,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F9">
-        <v>0.6899999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="G9">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="H9">
-        <v>17.39</v>
+        <v>17.71</v>
       </c>
       <c r="I9">
-        <v>78.39</v>
+        <v>78.25999999999999</v>
       </c>
       <c r="J9">
-        <v>4.22</v>
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>12</v>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -1206,31 +1206,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30.2</v>
+        <v>30.07</v>
       </c>
       <c r="C2">
-        <v>24.21</v>
+        <v>24.3</v>
       </c>
       <c r="D2">
-        <v>19.54</v>
+        <v>19.27</v>
       </c>
       <c r="E2">
-        <v>13.65</v>
+        <v>13.39</v>
       </c>
       <c r="F2">
-        <v>7.82</v>
+        <v>7.9</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>4.26</v>
       </c>
       <c r="H2">
-        <v>0.9299999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J2">
-        <v>99.01999999999998</v>
+        <v>99.19000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>29.38</v>
+        <v>29.12</v>
       </c>
       <c r="C3">
-        <v>25.04</v>
+        <v>26.21</v>
       </c>
       <c r="D3">
-        <v>20.51</v>
+        <v>20.71</v>
       </c>
       <c r="E3">
-        <v>13.83</v>
+        <v>12.59</v>
       </c>
       <c r="F3">
-        <v>7.51</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="G3">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="I3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J3">
-        <v>99.34</v>
+        <v>99.38</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="C4">
-        <v>22.69</v>
+        <v>22.25</v>
       </c>
       <c r="D4">
-        <v>19.91</v>
+        <v>19.05</v>
       </c>
       <c r="E4">
-        <v>15.32</v>
+        <v>15.59</v>
       </c>
       <c r="F4">
-        <v>10.99</v>
+        <v>11.24</v>
       </c>
       <c r="G4">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="H4">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>98.15999999999998</v>
+        <v>98.17999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11.01</v>
+        <v>10.44</v>
       </c>
       <c r="C5">
-        <v>14.51</v>
+        <v>14.08</v>
       </c>
       <c r="D5">
-        <v>17.26</v>
+        <v>17.72</v>
       </c>
       <c r="E5">
-        <v>19.15</v>
+        <v>19.79</v>
       </c>
       <c r="F5">
-        <v>18.2</v>
+        <v>18.21</v>
       </c>
       <c r="G5">
-        <v>13.68</v>
+        <v>13.16</v>
       </c>
       <c r="H5">
-        <v>5.76</v>
+        <v>6.02</v>
       </c>
       <c r="I5">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="J5">
-        <v>93.81</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="C6">
-        <v>6.510000000000001</v>
+        <v>6.09</v>
       </c>
       <c r="D6">
-        <v>10.84</v>
+        <v>11.13</v>
       </c>
       <c r="E6">
-        <v>17.17</v>
+        <v>17.19</v>
       </c>
       <c r="F6">
         <v>22.86</v>
       </c>
       <c r="G6">
-        <v>22.3</v>
+        <v>22.64</v>
       </c>
       <c r="H6">
-        <v>14.52</v>
+        <v>14.33</v>
       </c>
       <c r="I6">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="J6">
-        <v>83.03999999999999</v>
+        <v>83.17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
       <c r="C7">
-        <v>6.4</v>
+        <v>6.29</v>
       </c>
       <c r="D7">
-        <v>10.08</v>
+        <v>10.36</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>16.45</v>
       </c>
       <c r="F7">
-        <v>20.88</v>
+        <v>20.81</v>
       </c>
       <c r="G7">
-        <v>25.9</v>
+        <v>24.89</v>
       </c>
       <c r="H7">
-        <v>15.43</v>
+        <v>15.62</v>
       </c>
       <c r="I7">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="J7">
-        <v>82.16000000000001</v>
+        <v>82.03</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C8">
-        <v>0.64</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="D8">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="E8">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="F8">
-        <v>10.96</v>
+        <v>10.76</v>
       </c>
       <c r="G8">
-        <v>22.04</v>
+        <v>22.32</v>
       </c>
       <c r="H8">
-        <v>43.27</v>
+        <v>43.78</v>
       </c>
       <c r="I8">
-        <v>16.29</v>
+        <v>15.65</v>
       </c>
       <c r="J8">
-        <v>40.44</v>
+        <v>40.57</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1436,25 +1436,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="F9">
-        <v>0.7799999999999999</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G9">
-        <v>3.16</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="H9">
-        <v>17.71</v>
+        <v>17.17</v>
       </c>
       <c r="I9">
-        <v>78.25999999999999</v>
+        <v>78.75</v>
       </c>
       <c r="J9">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
   <si>
     <t>Hungry Dogs</t>
   </si>
@@ -46,40 +46,43 @@
     <t>Sorry 🤷🏽‍♂️</t>
   </si>
   <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>5-8-1</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>7-9-1</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,28 +142,31 @@
     <t>Gianpierre Lopez</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
     <t>jack meehan</t>
   </si>
   <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
     <t>Ethyn Periman</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓1</t>
@@ -169,10 +175,13 @@
     <t>↓4</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -215,6 +224,15 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,22 +654,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -662,25 +680,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -691,25 +709,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -717,28 +735,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -752,22 +770,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -775,28 +793,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -804,28 +822,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -836,25 +854,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -872,13 +890,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -889,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.875</v>
+        <v>7.375</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -900,13 +918,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -917,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7.625</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -928,13 +946,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6.625</v>
+        <v>8.125</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -945,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.875</v>
+        <v>8.625</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,13 +974,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.875</v>
+        <v>9.375</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -970,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7.875</v>
+        <v>9.375</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -987,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1008,16 +1026,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1028,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1042,16 +1060,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8.625</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1059,16 +1077,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7.875</v>
+        <v>9.75</v>
       </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>1.75</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1079,13 +1097,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7.125</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1093,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>6.625</v>
+        <v>8.125</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1110,16 +1128,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.875</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-1.125</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1127,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.625</v>
+        <v>7.875</v>
       </c>
       <c r="D8">
-        <v>-0.375</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1147,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.625</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1171,34 +1189,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1206,31 +1224,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30.07</v>
+        <v>30.11</v>
       </c>
       <c r="C2">
-        <v>24.3</v>
+        <v>24.99</v>
       </c>
       <c r="D2">
-        <v>19.27</v>
+        <v>19.16</v>
       </c>
       <c r="E2">
-        <v>13.39</v>
+        <v>13.72</v>
       </c>
       <c r="F2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>4.26</v>
+        <v>3.22</v>
       </c>
       <c r="H2">
-        <v>0.7799999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J2">
-        <v>99.19000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1238,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>29.12</v>
+        <v>29.44</v>
       </c>
       <c r="C3">
-        <v>26.21</v>
+        <v>27.51</v>
       </c>
       <c r="D3">
-        <v>20.71</v>
+        <v>20.18</v>
       </c>
       <c r="E3">
-        <v>12.59</v>
+        <v>12.2</v>
       </c>
       <c r="F3">
-        <v>7.649999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="H3">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J3">
-        <v>99.38</v>
+        <v>99.47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1270,31 +1288,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>23.75</v>
+        <v>24.11</v>
       </c>
       <c r="C4">
-        <v>22.25</v>
+        <v>21.45</v>
       </c>
       <c r="D4">
-        <v>19.05</v>
+        <v>19.52</v>
       </c>
       <c r="E4">
-        <v>15.59</v>
+        <v>16.17</v>
       </c>
       <c r="F4">
-        <v>11.24</v>
+        <v>11.04</v>
       </c>
       <c r="G4">
-        <v>6.3</v>
+        <v>6.04</v>
       </c>
       <c r="H4">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="J4">
-        <v>98.17999999999999</v>
+        <v>98.33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1302,31 +1320,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.44</v>
+        <v>10.32</v>
       </c>
       <c r="C5">
-        <v>14.08</v>
+        <v>13.82</v>
       </c>
       <c r="D5">
-        <v>17.72</v>
+        <v>18.36</v>
       </c>
       <c r="E5">
-        <v>19.79</v>
+        <v>19.92</v>
       </c>
       <c r="F5">
-        <v>18.21</v>
+        <v>17.85</v>
       </c>
       <c r="G5">
-        <v>13.16</v>
+        <v>14.1</v>
       </c>
       <c r="H5">
-        <v>6.02</v>
+        <v>5.27</v>
       </c>
       <c r="I5">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="J5">
-        <v>93.40000000000001</v>
+        <v>94.36999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1334,31 +1352,31 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="C6">
-        <v>6.09</v>
+        <v>5.74</v>
       </c>
       <c r="D6">
-        <v>11.13</v>
+        <v>10.67</v>
       </c>
       <c r="E6">
-        <v>17.19</v>
+        <v>17.51</v>
       </c>
       <c r="F6">
-        <v>22.86</v>
+        <v>23.24</v>
       </c>
       <c r="G6">
-        <v>22.64</v>
+        <v>23.04</v>
       </c>
       <c r="H6">
-        <v>14.33</v>
+        <v>14.54</v>
       </c>
       <c r="I6">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="J6">
-        <v>83.17</v>
+        <v>83.28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1366,31 +1384,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="C7">
-        <v>6.29</v>
+        <v>6.15</v>
       </c>
       <c r="D7">
-        <v>10.36</v>
+        <v>10.57</v>
       </c>
       <c r="E7">
-        <v>16.45</v>
+        <v>15.87</v>
       </c>
       <c r="F7">
-        <v>20.81</v>
+        <v>22.04</v>
       </c>
       <c r="G7">
-        <v>24.89</v>
+        <v>25.32</v>
       </c>
       <c r="H7">
-        <v>15.62</v>
+        <v>15.13</v>
       </c>
       <c r="I7">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J7">
-        <v>82.03</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1398,31 +1416,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C8">
-        <v>0.7799999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="D8">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="E8">
-        <v>4.82</v>
+        <v>4.48</v>
       </c>
       <c r="F8">
-        <v>10.76</v>
+        <v>10.17</v>
       </c>
       <c r="G8">
-        <v>22.32</v>
+        <v>22.41</v>
       </c>
       <c r="H8">
-        <v>43.78</v>
+        <v>45.27</v>
       </c>
       <c r="I8">
-        <v>15.65</v>
+        <v>15.64</v>
       </c>
       <c r="J8">
-        <v>40.57</v>
+        <v>39.09</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1436,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F9">
-        <v>0.5700000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G9">
-        <v>3.330000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H9">
-        <v>17.17</v>
+        <v>16.92</v>
       </c>
       <c r="I9">
-        <v>78.75</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="J9">
-        <v>4.08</v>
+        <v>3.54</v>
       </c>
     </row>
   </sheetData>
@@ -1472,19 +1490,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1495,16 +1513,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1512,19 +1530,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1532,19 +1550,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1552,19 +1570,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1572,19 +1590,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1592,19 +1610,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1615,16 +1633,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1635,16 +1653,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1654,60 +1672,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,261 +1780,315 @@
       <c r="O2">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>27</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>-9</v>
+      </c>
+      <c r="F3">
+        <v>-12</v>
+      </c>
+      <c r="G3">
+        <v>-9</v>
+      </c>
+      <c r="H3">
+        <v>-10</v>
+      </c>
+      <c r="I3">
+        <v>-9</v>
+      </c>
+      <c r="J3">
+        <v>-10</v>
+      </c>
+      <c r="K3">
+        <v>-6</v>
+      </c>
+      <c r="L3">
+        <v>-4</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>12</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>-10</v>
+      </c>
+      <c r="D4">
+        <v>-8</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
         <v>-2</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
       <c r="I4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
       <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>-3</v>
+      </c>
+      <c r="N4">
+        <v>-10</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="P6">
+        <v>-2</v>
+      </c>
+      <c r="Q6">
+        <v>-2</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>-3</v>
       </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>-9</v>
-      </c>
-      <c r="F5">
-        <v>-12</v>
-      </c>
-      <c r="G5">
-        <v>-9</v>
-      </c>
-      <c r="H5">
-        <v>-10</v>
-      </c>
-      <c r="I5">
-        <v>-9</v>
-      </c>
-      <c r="J5">
-        <v>-10</v>
-      </c>
-      <c r="K5">
-        <v>-6</v>
-      </c>
-      <c r="L5">
+      <c r="L7">
         <v>-4</v>
       </c>
-      <c r="M5">
-        <v>-3</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>-3</v>
-      </c>
-      <c r="L6">
-        <v>-4</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>-10</v>
-      </c>
-      <c r="D7">
-        <v>-8</v>
-      </c>
-      <c r="E7">
-        <v>-10</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>-3</v>
-      </c>
-      <c r="N7">
-        <v>-10</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2053,11 +2134,20 @@
       <c r="O8">
         <v>-15</v>
       </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-22</v>
+      </c>
+      <c r="Q8">
+        <v>-21</v>
+      </c>
+      <c r="R8">
+        <v>-18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2103,8 +2193,17 @@
       <c r="O9">
         <v>-24</v>
       </c>
-      <c r="P9" t="s">
-        <v>48</v>
+      <c r="P9">
+        <v>-34</v>
+      </c>
+      <c r="Q9">
+        <v>-36</v>
+      </c>
+      <c r="R9">
+        <v>-36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,25 +2221,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2174,25 +2273,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2200,22 +2299,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -2226,25 +2325,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2252,22 +2351,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>21</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>1</v>
@@ -2278,25 +2377,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2304,10 +2403,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -2316,10 +2415,10 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -2330,25 +2429,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2356,22 +2455,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -2382,22 +2481,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>-3</v>
       </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -2408,25 +2507,77 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-10</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>-12</v>
-      </c>
-      <c r="F12">
-        <v>-24</v>
-      </c>
-      <c r="G12">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
+      <c r="H14" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2021.xlsx
+++ b/EBC League 2021.xlsx
@@ -2983,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,30 +3014,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -3063,27 +3083,45 @@
       <c r="E2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1843.64</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Hungry Dogs</t>
         </is>
@@ -3109,27 +3147,45 @@
       <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1807.36</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Pure Mature</t>
         </is>
@@ -3155,21 +3211,37 @@
       <c r="E4" t="n">
         <v>27</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1836.6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pleasant Valley Panthers</t>
         </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>129.3</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1710.14</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Pleasant Valley Panthers</t>
         </is>
@@ -3195,21 +3267,37 @@
       <c r="E5" t="n">
         <v>-2</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1768.88</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pitman OBJYN</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>105.28</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1713.52</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Pitman OBJYN</t>
         </is>
@@ -3235,21 +3323,37 @@
       <c r="E6" t="n">
         <v>14</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1843.64</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pitman OBJYN</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>132.26</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1713.52</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Hungry Dogs</t>
         </is>
@@ -3275,21 +3379,37 @@
       <c r="E7" t="n">
         <v>9</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1807.36</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pleasant Valley Panthers</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>127.82</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1710.14</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Pure Mature</t>
         </is>
@@ -3315,21 +3435,37 @@
       <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1843.64</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pure Mature</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>127.9</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1807.36</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Pure Mature</t>
         </is>
